--- a/ОФС стандартизированная полностью_v2.xlsx
+++ b/ОФС стандартизированная полностью_v2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OFS_Global\ofs_project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ERP\ofs_new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26609963-E45E-4E80-A166-455DFA633B06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E2DF6E8-28EE-4731-AD15-B550DE84F9D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1170" yWindow="1170" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Оргсхема" sheetId="1" r:id="rId1"/>
@@ -24,11 +24,12 @@
     <sheet name="7. ДЕПАРТАМЕНТ" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="384">
   <si>
     <t>Организационно-функциональная схема компании "ФОТОМАТРИЦА"</t>
   </si>
@@ -1216,6 +1217,9 @@
   </si>
   <si>
     <t>4. ПРОИЗВОДСТВЕННЫЙ ДЕПАРТАМЕНТ</t>
+  </si>
+  <si>
+    <t>2.2 Отдел Администрирования</t>
   </si>
 </sst>
 </file>
@@ -2722,6 +2726,12 @@
     <xf numFmtId="0" fontId="6" fillId="10" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2733,10 +2743,14 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -2744,21 +2758,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
@@ -2772,10 +2771,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2786,9 +2793,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3117,8 +3121,8 @@
   </sheetPr>
   <dimension ref="A1:AG295"/>
   <sheetViews>
-    <sheetView topLeftCell="D16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26:G28"/>
+    <sheetView tabSelected="1" topLeftCell="G21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3304,7 +3308,7 @@
       <c r="C5" s="161" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="128"/>
+      <c r="D5" s="132"/>
       <c r="E5" s="36"/>
       <c r="F5" s="36"/>
       <c r="G5" s="36"/>
@@ -3338,8 +3342,8 @@
     <row r="6" spans="1:33" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="23"/>
       <c r="B6" s="73"/>
-      <c r="C6" s="129"/>
-      <c r="D6" s="131"/>
+      <c r="C6" s="133"/>
+      <c r="D6" s="135"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -3349,17 +3353,17 @@
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
       <c r="M6" s="77"/>
-      <c r="N6" s="138" t="s">
+      <c r="N6" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="O6" s="127"/>
-      <c r="P6" s="128"/>
-      <c r="Q6" s="147"/>
-      <c r="R6" s="138" t="s">
+      <c r="O6" s="131"/>
+      <c r="P6" s="132"/>
+      <c r="Q6" s="144"/>
+      <c r="R6" s="130" t="s">
         <v>3</v>
       </c>
-      <c r="S6" s="127"/>
-      <c r="T6" s="128"/>
+      <c r="S6" s="131"/>
+      <c r="T6" s="132"/>
       <c r="U6" s="7"/>
       <c r="V6" s="36"/>
       <c r="W6" s="36"/>
@@ -3377,8 +3381,8 @@
     <row r="7" spans="1:33" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="23"/>
       <c r="B7" s="73"/>
-      <c r="C7" s="129"/>
-      <c r="D7" s="131"/>
+      <c r="C7" s="133"/>
+      <c r="D7" s="135"/>
       <c r="E7" s="36"/>
       <c r="F7" s="36"/>
       <c r="G7" s="36"/>
@@ -3388,13 +3392,13 @@
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="8"/>
-      <c r="N7" s="129"/>
-      <c r="O7" s="130"/>
-      <c r="P7" s="131"/>
-      <c r="Q7" s="130"/>
-      <c r="R7" s="129"/>
-      <c r="S7" s="130"/>
-      <c r="T7" s="131"/>
+      <c r="N7" s="133"/>
+      <c r="O7" s="134"/>
+      <c r="P7" s="135"/>
+      <c r="Q7" s="134"/>
+      <c r="R7" s="133"/>
+      <c r="S7" s="134"/>
+      <c r="T7" s="135"/>
       <c r="U7" s="9"/>
       <c r="V7" s="10"/>
       <c r="W7" s="10"/>
@@ -3412,8 +3416,8 @@
     <row r="8" spans="1:33" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="23"/>
       <c r="B8" s="73"/>
-      <c r="C8" s="139"/>
-      <c r="D8" s="141"/>
+      <c r="C8" s="136"/>
+      <c r="D8" s="138"/>
       <c r="E8" s="36"/>
       <c r="F8" s="36"/>
       <c r="G8" s="36"/>
@@ -3423,13 +3427,13 @@
       <c r="K8" s="36"/>
       <c r="L8" s="14"/>
       <c r="M8" s="77"/>
-      <c r="N8" s="139"/>
-      <c r="O8" s="140"/>
-      <c r="P8" s="141"/>
-      <c r="Q8" s="130"/>
-      <c r="R8" s="139"/>
-      <c r="S8" s="140"/>
-      <c r="T8" s="141"/>
+      <c r="N8" s="136"/>
+      <c r="O8" s="137"/>
+      <c r="P8" s="138"/>
+      <c r="Q8" s="134"/>
+      <c r="R8" s="136"/>
+      <c r="S8" s="137"/>
+      <c r="T8" s="138"/>
       <c r="U8" s="7"/>
       <c r="V8" s="36"/>
       <c r="W8" s="36"/>
@@ -3657,39 +3661,39 @@
     <row r="15" spans="1:33" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="23"/>
       <c r="B15" s="73"/>
-      <c r="C15" s="126" t="s">
+      <c r="C15" s="149" t="s">
         <v>365</v>
       </c>
-      <c r="D15" s="127"/>
-      <c r="E15" s="128"/>
+      <c r="D15" s="131"/>
+      <c r="E15" s="132"/>
       <c r="F15" s="36"/>
       <c r="G15" s="162" t="s">
         <v>342</v>
       </c>
-      <c r="H15" s="143"/>
-      <c r="I15" s="144"/>
+      <c r="H15" s="140"/>
+      <c r="I15" s="141"/>
       <c r="J15" s="36"/>
-      <c r="K15" s="142" t="s">
+      <c r="K15" s="139" t="s">
         <v>380</v>
       </c>
-      <c r="L15" s="143"/>
-      <c r="M15" s="143"/>
-      <c r="N15" s="144"/>
+      <c r="L15" s="140"/>
+      <c r="M15" s="140"/>
+      <c r="N15" s="141"/>
       <c r="O15" s="36"/>
       <c r="P15" s="148" t="s">
         <v>381</v>
       </c>
-      <c r="Q15" s="143"/>
-      <c r="R15" s="144"/>
+      <c r="Q15" s="140"/>
+      <c r="R15" s="141"/>
       <c r="S15" s="36"/>
       <c r="T15" s="163" t="s">
         <v>382</v>
       </c>
-      <c r="U15" s="143"/>
-      <c r="V15" s="143"/>
-      <c r="W15" s="144"/>
+      <c r="U15" s="140"/>
+      <c r="V15" s="140"/>
+      <c r="W15" s="141"/>
       <c r="X15" s="36"/>
-      <c r="Y15" s="136" t="s">
+      <c r="Y15" s="128" t="s">
         <v>360</v>
       </c>
       <c r="Z15" s="94"/>
@@ -3698,7 +3702,7 @@
       <c r="AC15" s="164" t="s">
         <v>364</v>
       </c>
-      <c r="AD15" s="127"/>
+      <c r="AD15" s="131"/>
       <c r="AE15" s="165"/>
       <c r="AF15" s="20"/>
       <c r="AG15" s="21"/>
@@ -3706,34 +3710,34 @@
     <row r="16" spans="1:33" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="23"/>
       <c r="B16" s="73"/>
-      <c r="C16" s="129"/>
-      <c r="D16" s="130"/>
-      <c r="E16" s="131"/>
+      <c r="C16" s="133"/>
+      <c r="D16" s="134"/>
+      <c r="E16" s="135"/>
       <c r="F16" s="36"/>
       <c r="G16" s="110"/>
-      <c r="H16" s="145"/>
-      <c r="I16" s="146"/>
+      <c r="H16" s="142"/>
+      <c r="I16" s="143"/>
       <c r="J16" s="36"/>
       <c r="K16" s="110"/>
-      <c r="L16" s="145"/>
-      <c r="M16" s="145"/>
-      <c r="N16" s="146"/>
+      <c r="L16" s="142"/>
+      <c r="M16" s="142"/>
+      <c r="N16" s="143"/>
       <c r="O16" s="36"/>
       <c r="P16" s="110"/>
-      <c r="Q16" s="145"/>
-      <c r="R16" s="146"/>
+      <c r="Q16" s="142"/>
+      <c r="R16" s="143"/>
       <c r="S16" s="36"/>
       <c r="T16" s="110"/>
-      <c r="U16" s="145"/>
-      <c r="V16" s="145"/>
-      <c r="W16" s="146"/>
+      <c r="U16" s="142"/>
+      <c r="V16" s="142"/>
+      <c r="W16" s="143"/>
       <c r="X16" s="36"/>
-      <c r="Y16" s="137"/>
-      <c r="Z16" s="137"/>
-      <c r="AA16" s="137"/>
+      <c r="Y16" s="129"/>
+      <c r="Z16" s="129"/>
+      <c r="AA16" s="129"/>
       <c r="AB16" s="36"/>
-      <c r="AC16" s="129"/>
-      <c r="AD16" s="130"/>
+      <c r="AC16" s="133"/>
+      <c r="AD16" s="134"/>
       <c r="AE16" s="166"/>
       <c r="AF16" s="20"/>
       <c r="AG16" s="21"/>
@@ -3741,49 +3745,49 @@
     <row r="17" spans="1:33" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="23"/>
       <c r="B17" s="73"/>
-      <c r="C17" s="151" t="s">
+      <c r="C17" s="152" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="152"/>
-      <c r="E17" s="153"/>
+      <c r="D17" s="153"/>
+      <c r="E17" s="154"/>
       <c r="F17" s="36"/>
-      <c r="G17" s="133" t="s">
+      <c r="G17" s="145" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="134"/>
-      <c r="I17" s="135"/>
+      <c r="H17" s="146"/>
+      <c r="I17" s="147"/>
       <c r="J17" s="36"/>
-      <c r="K17" s="133" t="s">
+      <c r="K17" s="145" t="s">
         <v>13</v>
       </c>
-      <c r="L17" s="134"/>
-      <c r="M17" s="134"/>
-      <c r="N17" s="135"/>
+      <c r="L17" s="146"/>
+      <c r="M17" s="146"/>
+      <c r="N17" s="147"/>
       <c r="O17" s="36"/>
-      <c r="P17" s="133" t="s">
+      <c r="P17" s="145" t="s">
         <v>14</v>
       </c>
-      <c r="Q17" s="134"/>
-      <c r="R17" s="135"/>
+      <c r="Q17" s="146"/>
+      <c r="R17" s="147"/>
       <c r="S17" s="36"/>
-      <c r="T17" s="133" t="s">
+      <c r="T17" s="145" t="s">
         <v>15</v>
       </c>
-      <c r="U17" s="134"/>
-      <c r="V17" s="134"/>
-      <c r="W17" s="135"/>
+      <c r="U17" s="146"/>
+      <c r="V17" s="146"/>
+      <c r="W17" s="147"/>
       <c r="X17" s="36"/>
-      <c r="Y17" s="151" t="s">
+      <c r="Y17" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="Z17" s="152"/>
-      <c r="AA17" s="153"/>
+      <c r="Z17" s="153"/>
+      <c r="AA17" s="154"/>
       <c r="AB17" s="36"/>
-      <c r="AC17" s="151" t="s">
+      <c r="AC17" s="152" t="s">
         <v>17</v>
       </c>
-      <c r="AD17" s="152"/>
-      <c r="AE17" s="153"/>
+      <c r="AD17" s="153"/>
+      <c r="AE17" s="154"/>
       <c r="AF17" s="25"/>
       <c r="AG17" s="23"/>
     </row>
@@ -3814,7 +3818,7 @@
         <v>351</v>
       </c>
       <c r="L18" s="62" t="s">
-        <v>354</v>
+        <v>383</v>
       </c>
       <c r="M18" s="62" t="s">
         <v>352</v>
@@ -4100,7 +4104,7 @@
     <row r="22" spans="1:33" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="23"/>
       <c r="B22" s="73"/>
-      <c r="C22" s="150" t="s">
+      <c r="C22" s="151" t="s">
         <v>51</v>
       </c>
       <c r="D22" s="40" t="s">
@@ -4120,56 +4124,56 @@
         <v>21</v>
       </c>
       <c r="J22" s="36"/>
-      <c r="K22" s="120" t="s">
+      <c r="K22" s="122" t="s">
         <v>184</v>
       </c>
-      <c r="L22" s="120" t="s">
+      <c r="L22" s="122" t="s">
         <v>185</v>
       </c>
       <c r="M22" s="40" t="s">
         <v>186</v>
       </c>
-      <c r="N22" s="149" t="s">
+      <c r="N22" s="127" t="s">
         <v>187</v>
       </c>
       <c r="O22" s="36"/>
-      <c r="P22" s="120" t="s">
+      <c r="P22" s="122" t="s">
         <v>205</v>
       </c>
-      <c r="Q22" s="120" t="s">
+      <c r="Q22" s="122" t="s">
         <v>206</v>
       </c>
-      <c r="R22" s="120" t="s">
+      <c r="R22" s="122" t="s">
         <v>207</v>
       </c>
       <c r="S22" s="36"/>
-      <c r="T22" s="120" t="s">
+      <c r="T22" s="122" t="s">
         <v>226</v>
       </c>
-      <c r="U22" s="132" t="s">
+      <c r="U22" s="150" t="s">
         <v>227</v>
       </c>
-      <c r="V22" s="132" t="s">
+      <c r="V22" s="150" t="s">
         <v>228</v>
       </c>
-      <c r="W22" s="120" t="s">
+      <c r="W22" s="122" t="s">
         <v>229</v>
       </c>
       <c r="X22" s="36"/>
-      <c r="Y22" s="120" t="s">
+      <c r="Y22" s="122" t="s">
         <v>251</v>
       </c>
-      <c r="Z22" s="120" t="s">
+      <c r="Z22" s="122" t="s">
         <v>252</v>
       </c>
-      <c r="AA22" s="120" t="s">
+      <c r="AA22" s="122" t="s">
         <v>253</v>
       </c>
       <c r="AB22" s="36"/>
-      <c r="AC22" s="120" t="s">
+      <c r="AC22" s="122" t="s">
         <v>278</v>
       </c>
-      <c r="AD22" s="132" t="s">
+      <c r="AD22" s="150" t="s">
         <v>279</v>
       </c>
       <c r="AE22" s="40"/>
@@ -4180,20 +4184,20 @@
       <c r="A23" s="23"/>
       <c r="B23" s="73"/>
       <c r="C23" s="109"/>
-      <c r="D23" s="120" t="s">
+      <c r="D23" s="122" t="s">
         <v>302</v>
       </c>
-      <c r="E23" s="120" t="s">
+      <c r="E23" s="122" t="s">
         <v>303</v>
       </c>
       <c r="F23" s="36"/>
       <c r="G23" s="40" t="s">
         <v>155</v>
       </c>
-      <c r="H23" s="120" t="s">
+      <c r="H23" s="122" t="s">
         <v>156</v>
       </c>
-      <c r="I23" s="120" t="s">
+      <c r="I23" s="122" t="s">
         <v>157</v>
       </c>
       <c r="J23" s="36"/>
@@ -4203,21 +4207,21 @@
       <c r="N23" s="88"/>
       <c r="O23" s="36"/>
       <c r="P23" s="88"/>
-      <c r="Q23" s="124"/>
+      <c r="Q23" s="126"/>
       <c r="R23" s="88"/>
       <c r="S23" s="36"/>
       <c r="T23" s="88"/>
-      <c r="U23" s="124"/>
+      <c r="U23" s="126"/>
       <c r="V23" s="88"/>
       <c r="W23" s="88"/>
       <c r="X23" s="36"/>
       <c r="Y23" s="88"/>
-      <c r="Z23" s="124"/>
+      <c r="Z23" s="126"/>
       <c r="AA23" s="88"/>
       <c r="AB23" s="36"/>
       <c r="AC23" s="88"/>
       <c r="AD23" s="88"/>
-      <c r="AE23" s="120" t="s">
+      <c r="AE23" s="122" t="s">
         <v>280</v>
       </c>
       <c r="AF23" s="25"/>
@@ -4242,16 +4246,16 @@
       <c r="N24" s="88"/>
       <c r="O24" s="36"/>
       <c r="P24" s="88"/>
-      <c r="Q24" s="124"/>
+      <c r="Q24" s="126"/>
       <c r="R24" s="88"/>
       <c r="S24" s="36"/>
       <c r="T24" s="88"/>
-      <c r="U24" s="124"/>
+      <c r="U24" s="126"/>
       <c r="V24" s="88"/>
       <c r="W24" s="88"/>
       <c r="X24" s="36"/>
       <c r="Y24" s="88"/>
-      <c r="Z24" s="124"/>
+      <c r="Z24" s="126"/>
       <c r="AA24" s="88"/>
       <c r="AB24" s="36"/>
       <c r="AC24" s="88"/>
@@ -4308,7 +4312,7 @@
       <c r="D26" s="40"/>
       <c r="E26" s="40"/>
       <c r="F26" s="36"/>
-      <c r="G26" s="120" t="s">
+      <c r="G26" s="122" t="s">
         <v>158</v>
       </c>
       <c r="H26" s="88"/>
@@ -4367,7 +4371,7 @@
     <row r="27" spans="1:33" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="23"/>
       <c r="B27" s="73"/>
-      <c r="C27" s="150" t="s">
+      <c r="C27" s="151" t="s">
         <v>304</v>
       </c>
       <c r="D27" s="48" t="s">
@@ -4388,14 +4392,14 @@
         <v>188</v>
       </c>
       <c r="M27" s="39"/>
-      <c r="N27" s="149" t="s">
+      <c r="N27" s="127" t="s">
         <v>189</v>
       </c>
       <c r="O27" s="36"/>
       <c r="P27" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="Q27" s="120" t="s">
+      <c r="Q27" s="122" t="s">
         <v>209</v>
       </c>
       <c r="R27" s="40" t="s">
@@ -4451,7 +4455,7 @@
       <c r="K28" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="L28" s="120" t="s">
+      <c r="L28" s="122" t="s">
         <v>190</v>
       </c>
       <c r="M28" s="39"/>
@@ -4460,15 +4464,15 @@
       <c r="P28" s="40" t="s">
         <v>210</v>
       </c>
-      <c r="Q28" s="124"/>
-      <c r="R28" s="120" t="s">
+      <c r="Q28" s="126"/>
+      <c r="R28" s="122" t="s">
         <v>211</v>
       </c>
       <c r="S28" s="36"/>
-      <c r="T28" s="120" t="s">
+      <c r="T28" s="122" t="s">
         <v>230</v>
       </c>
-      <c r="U28" s="132" t="s">
+      <c r="U28" s="150" t="s">
         <v>231</v>
       </c>
       <c r="V28" s="54" t="s">
@@ -4481,14 +4485,14 @@
       <c r="Y28" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="Z28" s="120" t="s">
+      <c r="Z28" s="122" t="s">
         <v>255</v>
       </c>
       <c r="AA28" s="40" t="s">
         <v>73</v>
       </c>
       <c r="AB28" s="36"/>
-      <c r="AC28" s="120" t="s">
+      <c r="AC28" s="122" t="s">
         <v>283</v>
       </c>
       <c r="AD28" s="119" t="s">
@@ -4507,7 +4511,7 @@
       <c r="D29" s="156" t="s">
         <v>305</v>
       </c>
-      <c r="E29" s="120" t="s">
+      <c r="E29" s="122" t="s">
         <v>306</v>
       </c>
       <c r="F29" s="36"/>
@@ -4539,21 +4543,21 @@
       <c r="R29" s="88"/>
       <c r="S29" s="36"/>
       <c r="T29" s="88"/>
-      <c r="U29" s="124"/>
+      <c r="U29" s="126"/>
       <c r="V29" s="54"/>
       <c r="W29" s="40"/>
       <c r="X29" s="36"/>
-      <c r="Y29" s="120" t="s">
+      <c r="Y29" s="122" t="s">
         <v>256</v>
       </c>
-      <c r="Z29" s="124"/>
-      <c r="AA29" s="120" t="s">
+      <c r="Z29" s="126"/>
+      <c r="AA29" s="122" t="s">
         <v>257</v>
       </c>
       <c r="AB29" s="36"/>
       <c r="AC29" s="88"/>
       <c r="AD29" s="88"/>
-      <c r="AE29" s="120" t="s">
+      <c r="AE29" s="122" t="s">
         <v>285</v>
       </c>
       <c r="AF29" s="25"/>
@@ -4576,7 +4580,7 @@
         <v>80</v>
       </c>
       <c r="J30" s="36"/>
-      <c r="K30" s="149" t="s">
+      <c r="K30" s="127" t="s">
         <v>191</v>
       </c>
       <c r="L30" s="88"/>
@@ -4605,7 +4609,7 @@
       </c>
       <c r="X30" s="36"/>
       <c r="Y30" s="88"/>
-      <c r="Z30" s="124"/>
+      <c r="Z30" s="126"/>
       <c r="AA30" s="88"/>
       <c r="AB30" s="36"/>
       <c r="AC30" s="40"/>
@@ -4627,21 +4631,21 @@
       <c r="H31" s="40" t="s">
         <v>162</v>
       </c>
-      <c r="I31" s="120" t="s">
+      <c r="I31" s="122" t="s">
         <v>163</v>
       </c>
       <c r="J31" s="36"/>
       <c r="K31" s="88"/>
       <c r="L31" s="88"/>
       <c r="M31" s="39"/>
-      <c r="N31" s="149" t="s">
+      <c r="N31" s="127" t="s">
         <v>192</v>
       </c>
       <c r="O31" s="36"/>
       <c r="P31" s="40" t="s">
         <v>213</v>
       </c>
-      <c r="Q31" s="120" t="s">
+      <c r="Q31" s="122" t="s">
         <v>214</v>
       </c>
       <c r="R31" s="40" t="s">
@@ -4662,7 +4666,7 @@
       </c>
       <c r="X31" s="36"/>
       <c r="Y31" s="40"/>
-      <c r="Z31" s="124"/>
+      <c r="Z31" s="126"/>
       <c r="AA31" s="40"/>
       <c r="AB31" s="36"/>
       <c r="AC31" s="39" t="s">
@@ -4696,8 +4700,8 @@
       <c r="N32" s="88"/>
       <c r="O32" s="36"/>
       <c r="P32" s="40"/>
-      <c r="Q32" s="124"/>
-      <c r="R32" s="120" t="s">
+      <c r="Q32" s="126"/>
+      <c r="R32" s="122" t="s">
         <v>215</v>
       </c>
       <c r="S32" s="36"/>
@@ -4706,7 +4710,7 @@
       </c>
       <c r="U32" s="54"/>
       <c r="V32" s="54"/>
-      <c r="W32" s="120" t="s">
+      <c r="W32" s="122" t="s">
         <v>234</v>
       </c>
       <c r="X32" s="36"/>
@@ -4729,7 +4733,7 @@
     <row r="33" spans="1:33" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="23"/>
       <c r="B33" s="73"/>
-      <c r="C33" s="150" t="s">
+      <c r="C33" s="151" t="s">
         <v>31</v>
       </c>
       <c r="D33" s="40"/>
@@ -4758,13 +4762,13 @@
       </c>
       <c r="R33" s="88"/>
       <c r="S33" s="36"/>
-      <c r="T33" s="120" t="s">
+      <c r="T33" s="122" t="s">
         <v>235</v>
       </c>
       <c r="U33" s="68" t="s">
         <v>236</v>
       </c>
-      <c r="V33" s="132" t="s">
+      <c r="V33" s="150" t="s">
         <v>240</v>
       </c>
       <c r="W33" s="88"/>
@@ -4807,7 +4811,7 @@
       <c r="I34" s="88"/>
       <c r="J34" s="36"/>
       <c r="K34" s="40"/>
-      <c r="L34" s="120" t="s">
+      <c r="L34" s="122" t="s">
         <v>194</v>
       </c>
       <c r="M34" s="39"/>
@@ -4830,13 +4834,13 @@
       <c r="V34" s="88"/>
       <c r="W34" s="88"/>
       <c r="X34" s="36"/>
-      <c r="Y34" s="120" t="s">
+      <c r="Y34" s="122" t="s">
         <v>258</v>
       </c>
       <c r="Z34" s="53" t="s">
         <v>259</v>
       </c>
-      <c r="AA34" s="120" t="s">
+      <c r="AA34" s="122" t="s">
         <v>260</v>
       </c>
       <c r="AB34" s="36"/>
@@ -4851,7 +4855,7 @@
     <row r="35" spans="1:33" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="23"/>
       <c r="B35" s="73"/>
-      <c r="C35" s="154" t="s">
+      <c r="C35" s="121" t="s">
         <v>307</v>
       </c>
       <c r="D35" s="40" t="s">
@@ -4862,7 +4866,7 @@
       </c>
       <c r="F35" s="36"/>
       <c r="G35" s="40"/>
-      <c r="H35" s="120" t="s">
+      <c r="H35" s="122" t="s">
         <v>167</v>
       </c>
       <c r="I35" s="39" t="s">
@@ -4878,10 +4882,10 @@
         <v>23</v>
       </c>
       <c r="O35" s="36"/>
-      <c r="P35" s="149" t="s">
+      <c r="P35" s="127" t="s">
         <v>217</v>
       </c>
-      <c r="Q35" s="120" t="s">
+      <c r="Q35" s="122" t="s">
         <v>218</v>
       </c>
       <c r="R35" s="40" t="s">
@@ -4894,7 +4898,7 @@
       <c r="W35" s="40"/>
       <c r="X35" s="36"/>
       <c r="Y35" s="88"/>
-      <c r="Z35" s="120" t="s">
+      <c r="Z35" s="122" t="s">
         <v>261</v>
       </c>
       <c r="AA35" s="88"/>
@@ -4915,10 +4919,10 @@
       <c r="A36" s="23"/>
       <c r="B36" s="73"/>
       <c r="C36" s="109"/>
-      <c r="D36" s="120" t="s">
+      <c r="D36" s="122" t="s">
         <v>309</v>
       </c>
-      <c r="E36" s="120" t="s">
+      <c r="E36" s="122" t="s">
         <v>310</v>
       </c>
       <c r="F36" s="36"/>
@@ -4940,8 +4944,8 @@
       </c>
       <c r="O36" s="36"/>
       <c r="P36" s="88"/>
-      <c r="Q36" s="124"/>
-      <c r="R36" s="120" t="s">
+      <c r="Q36" s="126"/>
+      <c r="R36" s="122" t="s">
         <v>219</v>
       </c>
       <c r="S36" s="36"/>
@@ -4953,7 +4957,7 @@
       </c>
       <c r="X36" s="36"/>
       <c r="Y36" s="40"/>
-      <c r="Z36" s="124"/>
+      <c r="Z36" s="126"/>
       <c r="AA36" s="40"/>
       <c r="AB36" s="36"/>
       <c r="AC36" s="40" t="s">
@@ -4981,7 +4985,7 @@
         <v>107</v>
       </c>
       <c r="H37" s="88"/>
-      <c r="I37" s="120" t="s">
+      <c r="I37" s="122" t="s">
         <v>168</v>
       </c>
       <c r="J37" s="36"/>
@@ -5006,10 +5010,10 @@
       <c r="Y37" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="Z37" s="124"/>
+      <c r="Z37" s="126"/>
       <c r="AA37" s="40"/>
       <c r="AB37" s="36"/>
-      <c r="AC37" s="120" t="s">
+      <c r="AC37" s="122" t="s">
         <v>290</v>
       </c>
       <c r="AD37" s="54"/>
@@ -5042,7 +5046,7 @@
       <c r="N38" s="88"/>
       <c r="O38" s="36"/>
       <c r="P38" s="39"/>
-      <c r="Q38" s="120"/>
+      <c r="Q38" s="122"/>
       <c r="R38" s="88"/>
       <c r="S38" s="36"/>
       <c r="T38" s="39"/>
@@ -5050,7 +5054,7 @@
       <c r="V38" s="55" t="s">
         <v>138</v>
       </c>
-      <c r="W38" s="120" t="s">
+      <c r="W38" s="122" t="s">
         <v>237</v>
       </c>
       <c r="X38" s="36"/>
@@ -5071,7 +5075,7 @@
     <row r="39" spans="1:33" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="23"/>
       <c r="B39" s="73"/>
-      <c r="C39" s="125" t="s">
+      <c r="C39" s="120" t="s">
         <v>311</v>
       </c>
       <c r="D39" s="88"/>
@@ -5093,7 +5097,7 @@
       <c r="N39" s="88"/>
       <c r="O39" s="36"/>
       <c r="P39" s="61"/>
-      <c r="Q39" s="124"/>
+      <c r="Q39" s="126"/>
       <c r="R39" s="88"/>
       <c r="S39" s="36"/>
       <c r="T39" s="39" t="s">
@@ -5103,7 +5107,7 @@
       <c r="V39" s="54"/>
       <c r="W39" s="88"/>
       <c r="X39" s="36"/>
-      <c r="Y39" s="120" t="s">
+      <c r="Y39" s="122" t="s">
         <v>262</v>
       </c>
       <c r="Z39" s="39" t="s">
@@ -5129,19 +5133,19 @@
       <c r="G40" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="H40" s="120" t="s">
+      <c r="H40" s="122" t="s">
         <v>170</v>
       </c>
       <c r="I40" s="88"/>
       <c r="J40" s="36"/>
-      <c r="K40" s="120" t="s">
+      <c r="K40" s="122" t="s">
         <v>197</v>
       </c>
       <c r="L40" s="40"/>
       <c r="M40" s="40"/>
       <c r="N40" s="88"/>
       <c r="O40" s="36"/>
-      <c r="P40" s="149"/>
+      <c r="P40" s="127"/>
       <c r="Q40" s="40"/>
       <c r="R40" s="39" t="s">
         <v>114</v>
@@ -5151,7 +5155,7 @@
         <v>68</v>
       </c>
       <c r="U40" s="67"/>
-      <c r="V40" s="132" t="s">
+      <c r="V40" s="150" t="s">
         <v>241</v>
       </c>
       <c r="W40" s="88"/>
@@ -5202,7 +5206,7 @@
       <c r="W41" s="40"/>
       <c r="X41" s="36"/>
       <c r="Y41" s="40"/>
-      <c r="Z41" s="120" t="s">
+      <c r="Z41" s="122" t="s">
         <v>263</v>
       </c>
       <c r="AA41" s="40"/>
@@ -5224,7 +5228,7 @@
         <v>379</v>
       </c>
       <c r="D42" s="88"/>
-      <c r="E42" s="120" t="s">
+      <c r="E42" s="122" t="s">
         <v>312</v>
       </c>
       <c r="F42" s="36"/>
@@ -5243,7 +5247,7 @@
       <c r="O42" s="36"/>
       <c r="P42" s="88"/>
       <c r="Q42" s="40"/>
-      <c r="R42" s="120" t="s">
+      <c r="R42" s="122" t="s">
         <v>220</v>
       </c>
       <c r="S42" s="36"/>
@@ -5255,7 +5259,7 @@
       <c r="Y42" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="Z42" s="124"/>
+      <c r="Z42" s="126"/>
       <c r="AA42" s="40"/>
       <c r="AB42" s="36"/>
       <c r="AC42" s="40" t="s">
@@ -5264,7 +5268,7 @@
       <c r="AD42" s="54" t="s">
         <v>293</v>
       </c>
-      <c r="AE42" s="120"/>
+      <c r="AE42" s="122"/>
       <c r="AF42" s="25"/>
       <c r="AG42" s="1"/>
     </row>
@@ -5291,7 +5295,7 @@
       <c r="N43" s="40"/>
       <c r="O43" s="36"/>
       <c r="P43" s="39"/>
-      <c r="Q43" s="120"/>
+      <c r="Q43" s="122"/>
       <c r="R43" s="88"/>
       <c r="S43" s="36"/>
       <c r="T43" s="67"/>
@@ -5302,10 +5306,10 @@
       <c r="Y43" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="Z43" s="124"/>
+      <c r="Z43" s="126"/>
       <c r="AA43" s="40"/>
       <c r="AB43" s="36"/>
-      <c r="AC43" s="120" t="s">
+      <c r="AC43" s="122" t="s">
         <v>294</v>
       </c>
       <c r="AD43" s="54" t="s">
@@ -5318,7 +5322,7 @@
     <row r="44" spans="1:33" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A44" s="23"/>
       <c r="B44" s="73"/>
-      <c r="C44" s="125" t="s">
+      <c r="C44" s="120" t="s">
         <v>313</v>
       </c>
       <c r="D44" s="88"/>
@@ -5328,19 +5332,19 @@
         <v>79</v>
       </c>
       <c r="H44" s="88"/>
-      <c r="I44" s="120" t="s">
+      <c r="I44" s="122" t="s">
         <v>172</v>
       </c>
       <c r="J44" s="36"/>
       <c r="K44" s="88"/>
       <c r="L44" s="39"/>
       <c r="M44" s="40"/>
-      <c r="N44" s="120" t="s">
+      <c r="N44" s="122" t="s">
         <v>198</v>
       </c>
       <c r="O44" s="36"/>
       <c r="P44" s="40"/>
-      <c r="Q44" s="124"/>
+      <c r="Q44" s="126"/>
       <c r="R44" s="39" t="s">
         <v>123</v>
       </c>
@@ -5350,7 +5354,7 @@
       <c r="V44" s="88"/>
       <c r="W44" s="40"/>
       <c r="X44" s="36"/>
-      <c r="Y44" s="120" t="s">
+      <c r="Y44" s="122" t="s">
         <v>264</v>
       </c>
       <c r="Z44" s="40"/>
@@ -5382,9 +5386,9 @@
       <c r="M45" s="40"/>
       <c r="N45" s="88"/>
       <c r="O45" s="36"/>
-      <c r="P45" s="149"/>
+      <c r="P45" s="127"/>
       <c r="Q45" s="40"/>
-      <c r="R45" s="120" t="s">
+      <c r="R45" s="122" t="s">
         <v>67</v>
       </c>
       <c r="S45" s="36"/>
@@ -5419,7 +5423,7 @@
       <c r="I46" s="88"/>
       <c r="J46" s="36"/>
       <c r="K46" s="88"/>
-      <c r="L46" s="120"/>
+      <c r="L46" s="122"/>
       <c r="M46" s="40"/>
       <c r="N46" s="88"/>
       <c r="O46" s="36"/>
@@ -5478,7 +5482,7 @@
       <c r="W47" s="40"/>
       <c r="X47" s="36"/>
       <c r="Y47" s="40"/>
-      <c r="Z47" s="120" t="s">
+      <c r="Z47" s="122" t="s">
         <v>266</v>
       </c>
       <c r="AA47" s="40"/>
@@ -5487,7 +5491,7 @@
         <v>30</v>
       </c>
       <c r="AD47" s="55"/>
-      <c r="AE47" s="120"/>
+      <c r="AE47" s="122"/>
       <c r="AF47" s="25"/>
       <c r="AG47" s="1"/>
     </row>
@@ -5533,10 +5537,10 @@
       <c r="Y48" s="39" t="s">
         <v>267</v>
       </c>
-      <c r="Z48" s="124"/>
+      <c r="Z48" s="126"/>
       <c r="AA48" s="40"/>
       <c r="AB48" s="36"/>
-      <c r="AC48" s="120" t="s">
+      <c r="AC48" s="122" t="s">
         <v>294</v>
       </c>
       <c r="AD48" s="55"/>
@@ -5568,7 +5572,7 @@
       <c r="Q49" s="40"/>
       <c r="R49" s="88"/>
       <c r="S49" s="36"/>
-      <c r="T49" s="149" t="s">
+      <c r="T49" s="127" t="s">
         <v>239</v>
       </c>
       <c r="U49" s="167"/>
@@ -5578,7 +5582,7 @@
       <c r="Y49" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="Z49" s="124"/>
+      <c r="Z49" s="126"/>
       <c r="AA49" s="40"/>
       <c r="AB49" s="36"/>
       <c r="AC49" s="88"/>
@@ -5607,18 +5611,18 @@
       <c r="O50" s="36"/>
       <c r="P50" s="40"/>
       <c r="Q50" s="40"/>
-      <c r="R50" s="149" t="s">
+      <c r="R50" s="127" t="s">
         <v>221</v>
       </c>
       <c r="S50" s="36"/>
       <c r="T50" s="88"/>
       <c r="U50" s="168"/>
-      <c r="V50" s="132" t="s">
+      <c r="V50" s="150" t="s">
         <v>242</v>
       </c>
       <c r="W50" s="40"/>
       <c r="X50" s="36"/>
-      <c r="Y50" s="120" t="s">
+      <c r="Y50" s="122" t="s">
         <v>268</v>
       </c>
       <c r="Z50" s="40"/>
@@ -5633,11 +5637,11 @@
     <row r="51" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="23"/>
       <c r="B51" s="73"/>
-      <c r="C51" s="125" t="s">
+      <c r="C51" s="120" t="s">
         <v>317</v>
       </c>
       <c r="D51" s="88"/>
-      <c r="E51" s="120"/>
+      <c r="E51" s="122"/>
       <c r="F51" s="36"/>
       <c r="G51" s="40"/>
       <c r="H51" s="40"/>
@@ -5750,7 +5754,7 @@
     <row r="54" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="23"/>
       <c r="B54" s="73"/>
-      <c r="C54" s="125" t="s">
+      <c r="C54" s="120" t="s">
         <v>24</v>
       </c>
       <c r="D54" s="88"/>
@@ -5758,7 +5762,7 @@
       <c r="F54" s="36"/>
       <c r="G54" s="40"/>
       <c r="H54" s="40"/>
-      <c r="I54" s="120" t="s">
+      <c r="I54" s="122" t="s">
         <v>176</v>
       </c>
       <c r="J54" s="36"/>
@@ -5788,11 +5792,11 @@
         <v>271</v>
       </c>
       <c r="AB54" s="36"/>
-      <c r="AC54" s="120" t="s">
+      <c r="AC54" s="122" t="s">
         <v>294</v>
       </c>
       <c r="AD54" s="55"/>
-      <c r="AE54" s="120"/>
+      <c r="AE54" s="122"/>
       <c r="AF54" s="25"/>
       <c r="AG54" s="1"/>
     </row>
@@ -5853,7 +5857,7 @@
       <c r="S56" s="36"/>
       <c r="T56" s="40"/>
       <c r="U56" s="54"/>
-      <c r="V56" s="132" t="s">
+      <c r="V56" s="150" t="s">
         <v>243</v>
       </c>
       <c r="W56" s="40"/>
@@ -5873,7 +5877,7 @@
       <c r="B57" s="73"/>
       <c r="C57" s="109"/>
       <c r="D57" s="88"/>
-      <c r="E57" s="120"/>
+      <c r="E57" s="122"/>
       <c r="F57" s="36"/>
       <c r="G57" s="40"/>
       <c r="H57" s="40"/>
@@ -5912,7 +5916,7 @@
     <row r="58" spans="1:33" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="23"/>
       <c r="B58" s="73"/>
-      <c r="C58" s="125" t="s">
+      <c r="C58" s="120" t="s">
         <v>318</v>
       </c>
       <c r="D58" s="88"/>
@@ -6022,7 +6026,7 @@
       <c r="Z60" s="88"/>
       <c r="AA60" s="88"/>
       <c r="AB60" s="36"/>
-      <c r="AC60" s="120" t="s">
+      <c r="AC60" s="122" t="s">
         <v>294</v>
       </c>
       <c r="AD60" s="88"/>
@@ -6053,10 +6057,10 @@
       <c r="T61" s="87" t="s">
         <v>244</v>
       </c>
-      <c r="U61" s="123" t="s">
+      <c r="U61" s="125" t="s">
         <v>245</v>
       </c>
-      <c r="V61" s="121" t="s">
+      <c r="V61" s="123" t="s">
         <v>246</v>
       </c>
       <c r="W61" s="87" t="s">
@@ -6150,7 +6154,7 @@
     <row r="64" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="23"/>
       <c r="B64" s="73"/>
-      <c r="C64" s="125" t="s">
+      <c r="C64" s="120" t="s">
         <v>319</v>
       </c>
       <c r="D64" s="40"/>
@@ -6191,7 +6195,7 @@
       <c r="B65" s="73"/>
       <c r="C65" s="109"/>
       <c r="D65" s="40"/>
-      <c r="E65" s="120"/>
+      <c r="E65" s="122"/>
       <c r="F65" s="36"/>
       <c r="G65" s="88"/>
       <c r="H65" s="88"/>
@@ -6212,7 +6216,7 @@
       <c r="W65" s="88"/>
       <c r="X65" s="36"/>
       <c r="Y65" s="93"/>
-      <c r="Z65" s="122"/>
+      <c r="Z65" s="124"/>
       <c r="AA65" s="95"/>
       <c r="AB65" s="36"/>
       <c r="AC65" s="40"/>
@@ -6318,7 +6322,7 @@
       <c r="N68" s="36"/>
       <c r="O68" s="36"/>
       <c r="P68" s="93"/>
-      <c r="Q68" s="122"/>
+      <c r="Q68" s="124"/>
       <c r="R68" s="95"/>
       <c r="S68" s="36"/>
       <c r="T68" s="88"/>
@@ -6339,7 +6343,7 @@
     <row r="69" spans="1:33" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="23"/>
       <c r="B69" s="73"/>
-      <c r="C69" s="154" t="s">
+      <c r="C69" s="121" t="s">
         <v>137</v>
       </c>
       <c r="D69" s="40"/>
@@ -14198,7 +14202,6 @@
     <mergeCell ref="G15:I16"/>
     <mergeCell ref="AD22:AD25"/>
     <mergeCell ref="AC54:AC56"/>
-    <mergeCell ref="D29:D32"/>
     <mergeCell ref="C22:C26"/>
     <mergeCell ref="Y50:Y52"/>
     <mergeCell ref="N36:N41"/>
@@ -14213,7 +14216,7 @@
     <mergeCell ref="N31:N33"/>
     <mergeCell ref="I31:I34"/>
     <mergeCell ref="K22:K26"/>
-    <mergeCell ref="C58:C61"/>
+    <mergeCell ref="Q43:Q44"/>
     <mergeCell ref="C27:C31"/>
     <mergeCell ref="Y17:AA17"/>
     <mergeCell ref="G58:G67"/>
@@ -14237,8 +14240,7 @@
     <mergeCell ref="L22:L25"/>
     <mergeCell ref="Z22:Z24"/>
     <mergeCell ref="G17:I17"/>
-    <mergeCell ref="Q43:Q44"/>
-    <mergeCell ref="P15:R16"/>
+    <mergeCell ref="D29:D32"/>
     <mergeCell ref="AE23:AE26"/>
     <mergeCell ref="Q38:Q39"/>
     <mergeCell ref="AC48:AC50"/>
@@ -14258,10 +14260,8 @@
     <mergeCell ref="Y34:Y35"/>
     <mergeCell ref="Q31:Q32"/>
     <mergeCell ref="H35:H37"/>
-    <mergeCell ref="C15:E16"/>
     <mergeCell ref="G26:G28"/>
     <mergeCell ref="V50:V53"/>
-    <mergeCell ref="K17:N17"/>
     <mergeCell ref="Y15:AA16"/>
     <mergeCell ref="R6:T8"/>
     <mergeCell ref="E57:E61"/>
@@ -14282,6 +14282,10 @@
     <mergeCell ref="N6:P8"/>
     <mergeCell ref="W22:W24"/>
     <mergeCell ref="I23:I25"/>
+    <mergeCell ref="P15:R16"/>
+    <mergeCell ref="C15:E16"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="C58:C61"/>
     <mergeCell ref="AC22:AC24"/>
     <mergeCell ref="AA22:AA25"/>
     <mergeCell ref="AC60:AC62"/>
@@ -14565,20 +14569,20 @@
       <c r="A1" s="162" t="s">
         <v>342</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="144"/>
+      <c r="B1" s="140"/>
+      <c r="C1" s="141"/>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="110"/>
-      <c r="B2" s="145"/>
-      <c r="C2" s="146"/>
+      <c r="B2" s="142"/>
+      <c r="C2" s="143"/>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="133" t="s">
+      <c r="A3" s="145" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="134"/>
-      <c r="C3" s="135"/>
+      <c r="B3" s="146"/>
+      <c r="C3" s="147"/>
     </row>
     <row r="4" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="62" t="s">
@@ -14639,10 +14643,10 @@
       <c r="A9" s="40" t="s">
         <v>155</v>
       </c>
-      <c r="B9" s="120" t="s">
+      <c r="B9" s="122" t="s">
         <v>156</v>
       </c>
-      <c r="C9" s="120" t="s">
+      <c r="C9" s="122" t="s">
         <v>157</v>
       </c>
     </row>
@@ -14661,7 +14665,7 @@
       <c r="C11" s="88"/>
     </row>
     <row r="12" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="120" t="s">
+      <c r="A12" s="122" t="s">
         <v>158</v>
       </c>
       <c r="B12" s="88"/>
@@ -14712,7 +14716,7 @@
       <c r="B17" s="40" t="s">
         <v>162</v>
       </c>
-      <c r="C17" s="120" t="s">
+      <c r="C17" s="122" t="s">
         <v>163</v>
       </c>
     </row>
@@ -14743,7 +14747,7 @@
     </row>
     <row r="21" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="40"/>
-      <c r="B21" s="120" t="s">
+      <c r="B21" s="122" t="s">
         <v>167</v>
       </c>
       <c r="C21" s="39" t="s">
@@ -14764,7 +14768,7 @@
         <v>107</v>
       </c>
       <c r="B23" s="88"/>
-      <c r="C23" s="120" t="s">
+      <c r="C23" s="122" t="s">
         <v>168</v>
       </c>
     </row>
@@ -14790,7 +14794,7 @@
       <c r="A26" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="B26" s="120" t="s">
+      <c r="B26" s="122" t="s">
         <v>170</v>
       </c>
       <c r="C26" s="88"/>
@@ -14823,7 +14827,7 @@
         <v>79</v>
       </c>
       <c r="B30" s="88"/>
-      <c r="C30" s="120" t="s">
+      <c r="C30" s="122" t="s">
         <v>172</v>
       </c>
     </row>
@@ -14887,7 +14891,7 @@
     <row r="40" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="40"/>
       <c r="B40" s="40"/>
-      <c r="C40" s="120" t="s">
+      <c r="C40" s="122" t="s">
         <v>176</v>
       </c>
     </row>
@@ -14966,8 +14970,8 @@
       <c r="A54" s="195" t="s">
         <v>180</v>
       </c>
-      <c r="B54" s="143"/>
-      <c r="C54" s="144"/>
+      <c r="B54" s="140"/>
+      <c r="C54" s="141"/>
     </row>
     <row r="55" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="109"/>
@@ -14976,8 +14980,8 @@
     </row>
     <row r="56" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="110"/>
-      <c r="B56" s="145"/>
-      <c r="C56" s="146"/>
+      <c r="B56" s="142"/>
+      <c r="C56" s="143"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -15020,12 +15024,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="139" t="s">
         <v>346</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="144"/>
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="141"/>
       <c r="E1" s="33"/>
       <c r="F1" s="33"/>
       <c r="G1" s="33"/>
@@ -15049,9 +15053,9 @@
     </row>
     <row r="2" spans="1:24" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="110"/>
-      <c r="B2" s="145"/>
-      <c r="C2" s="145"/>
-      <c r="D2" s="146"/>
+      <c r="B2" s="142"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="143"/>
       <c r="E2" s="33"/>
       <c r="F2" s="33"/>
       <c r="G2" s="33"/>
@@ -15074,12 +15078,12 @@
       <c r="X2" s="33"/>
     </row>
     <row r="3" spans="1:24" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="133" t="s">
+      <c r="A3" s="145" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="134"/>
-      <c r="C3" s="134"/>
-      <c r="D3" s="135"/>
+      <c r="B3" s="146"/>
+      <c r="C3" s="146"/>
+      <c r="D3" s="147"/>
       <c r="E3" s="33"/>
       <c r="F3" s="33"/>
       <c r="G3" s="33"/>
@@ -15238,16 +15242,16 @@
       <c r="X7" s="21"/>
     </row>
     <row r="8" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="120" t="s">
+      <c r="A8" s="122" t="s">
         <v>184</v>
       </c>
-      <c r="B8" s="120" t="s">
+      <c r="B8" s="122" t="s">
         <v>185</v>
       </c>
       <c r="C8" s="40" t="s">
         <v>186</v>
       </c>
-      <c r="D8" s="149" t="s">
+      <c r="D8" s="127" t="s">
         <v>187</v>
       </c>
       <c r="E8" s="21"/>
@@ -15387,7 +15391,7 @@
         <v>188</v>
       </c>
       <c r="C13" s="39"/>
-      <c r="D13" s="149" t="s">
+      <c r="D13" s="127" t="s">
         <v>189</v>
       </c>
       <c r="E13" s="21"/>
@@ -15415,7 +15419,7 @@
       <c r="A14" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="B14" s="120" t="s">
+      <c r="B14" s="122" t="s">
         <v>190</v>
       </c>
       <c r="C14" s="39"/>
@@ -15472,7 +15476,7 @@
       <c r="X15" s="21"/>
     </row>
     <row r="16" spans="1:24" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="149" t="s">
+      <c r="A16" s="127" t="s">
         <v>191</v>
       </c>
       <c r="B16" s="88"/>
@@ -15505,7 +15509,7 @@
       <c r="A17" s="88"/>
       <c r="B17" s="88"/>
       <c r="C17" s="39"/>
-      <c r="D17" s="149" t="s">
+      <c r="D17" s="127" t="s">
         <v>192</v>
       </c>
       <c r="E17" s="21"/>
@@ -15587,7 +15591,7 @@
     </row>
     <row r="20" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A20" s="40"/>
-      <c r="B20" s="120" t="s">
+      <c r="B20" s="122" t="s">
         <v>194</v>
       </c>
       <c r="C20" s="39"/>
@@ -15760,7 +15764,7 @@
       <c r="X25" s="21"/>
     </row>
     <row r="26" spans="1:24" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="120" t="s">
+      <c r="A26" s="122" t="s">
         <v>197</v>
       </c>
       <c r="B26" s="40"/>
@@ -15871,7 +15875,7 @@
       <c r="A30" s="88"/>
       <c r="B30" s="39"/>
       <c r="C30" s="40"/>
-      <c r="D30" s="120" t="s">
+      <c r="D30" s="122" t="s">
         <v>198</v>
       </c>
       <c r="E30" s="21"/>
@@ -15923,7 +15927,7 @@
     </row>
     <row r="32" spans="1:24" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A32" s="88"/>
-      <c r="B32" s="120"/>
+      <c r="B32" s="122"/>
       <c r="C32" s="40"/>
       <c r="D32" s="88"/>
       <c r="E32" s="21"/>
@@ -16245,9 +16249,9 @@
       <c r="A44" s="195" t="s">
         <v>203</v>
       </c>
-      <c r="B44" s="143"/>
-      <c r="C44" s="143"/>
-      <c r="D44" s="144"/>
+      <c r="B44" s="140"/>
+      <c r="C44" s="140"/>
+      <c r="D44" s="141"/>
       <c r="E44" s="21"/>
       <c r="F44" s="21"/>
       <c r="G44" s="21"/>
@@ -16297,9 +16301,9 @@
     </row>
     <row r="46" spans="1:24" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="110"/>
-      <c r="B46" s="145"/>
-      <c r="C46" s="145"/>
-      <c r="D46" s="146"/>
+      <c r="B46" s="142"/>
+      <c r="C46" s="142"/>
+      <c r="D46" s="143"/>
       <c r="E46" s="21"/>
       <c r="F46" s="21"/>
       <c r="G46" s="21"/>
@@ -39923,20 +39927,20 @@
       <c r="A1" s="148" t="s">
         <v>347</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="144"/>
+      <c r="B1" s="140"/>
+      <c r="C1" s="141"/>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="110"/>
-      <c r="B2" s="145"/>
-      <c r="C2" s="146"/>
+      <c r="B2" s="142"/>
+      <c r="C2" s="143"/>
     </row>
     <row r="3" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="133" t="s">
+      <c r="A3" s="145" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="134"/>
-      <c r="C3" s="135"/>
+      <c r="B3" s="146"/>
+      <c r="C3" s="147"/>
     </row>
     <row r="4" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="62" t="s">
@@ -39981,24 +39985,24 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="120" t="s">
+      <c r="A8" s="122" t="s">
         <v>205</v>
       </c>
-      <c r="B8" s="120" t="s">
+      <c r="B8" s="122" t="s">
         <v>206</v>
       </c>
-      <c r="C8" s="120" t="s">
+      <c r="C8" s="122" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="88"/>
-      <c r="B9" s="124"/>
+      <c r="B9" s="126"/>
       <c r="C9" s="88"/>
     </row>
     <row r="10" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="88"/>
-      <c r="B10" s="124"/>
+      <c r="B10" s="126"/>
       <c r="C10" s="88"/>
     </row>
     <row r="11" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -40023,7 +40027,7 @@
       <c r="A13" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="B13" s="120" t="s">
+      <c r="B13" s="122" t="s">
         <v>209</v>
       </c>
       <c r="C13" s="40" t="s">
@@ -40034,8 +40038,8 @@
       <c r="A14" s="40" t="s">
         <v>210</v>
       </c>
-      <c r="B14" s="124"/>
-      <c r="C14" s="120" t="s">
+      <c r="B14" s="126"/>
+      <c r="C14" s="122" t="s">
         <v>211</v>
       </c>
     </row>
@@ -40063,7 +40067,7 @@
       <c r="A17" s="40" t="s">
         <v>213</v>
       </c>
-      <c r="B17" s="120" t="s">
+      <c r="B17" s="122" t="s">
         <v>214</v>
       </c>
       <c r="C17" s="40" t="s">
@@ -40072,8 +40076,8 @@
     </row>
     <row r="18" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="40"/>
-      <c r="B18" s="124"/>
-      <c r="C18" s="120" t="s">
+      <c r="B18" s="126"/>
+      <c r="C18" s="122" t="s">
         <v>215</v>
       </c>
     </row>
@@ -40098,10 +40102,10 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="149" t="s">
+      <c r="A21" s="127" t="s">
         <v>217</v>
       </c>
-      <c r="B21" s="120" t="s">
+      <c r="B21" s="122" t="s">
         <v>218</v>
       </c>
       <c r="C21" s="40" t="s">
@@ -40110,8 +40114,8 @@
     </row>
     <row r="22" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="88"/>
-      <c r="B22" s="124"/>
-      <c r="C22" s="120" t="s">
+      <c r="B22" s="126"/>
+      <c r="C22" s="122" t="s">
         <v>219</v>
       </c>
     </row>
@@ -40122,16 +40126,16 @@
     </row>
     <row r="24" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="39"/>
-      <c r="B24" s="120"/>
+      <c r="B24" s="122"/>
       <c r="C24" s="88"/>
     </row>
     <row r="25" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="61"/>
-      <c r="B25" s="124"/>
+      <c r="B25" s="126"/>
       <c r="C25" s="88"/>
     </row>
     <row r="26" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="149"/>
+      <c r="A26" s="127"/>
       <c r="B26" s="40"/>
       <c r="C26" s="39" t="s">
         <v>114</v>
@@ -40147,26 +40151,26 @@
     <row r="28" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="88"/>
       <c r="B28" s="40"/>
-      <c r="C28" s="120" t="s">
+      <c r="C28" s="122" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="39"/>
-      <c r="B29" s="120"/>
+      <c r="B29" s="122"/>
       <c r="C29" s="88"/>
     </row>
     <row r="30" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A30" s="40"/>
-      <c r="B30" s="124"/>
+      <c r="B30" s="126"/>
       <c r="C30" s="39" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="149"/>
+      <c r="A31" s="127"/>
       <c r="B31" s="40"/>
-      <c r="C31" s="120" t="s">
+      <c r="C31" s="122" t="s">
         <v>67</v>
       </c>
     </row>
@@ -40193,7 +40197,7 @@
     <row r="36" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="40"/>
       <c r="B36" s="40"/>
-      <c r="C36" s="149" t="s">
+      <c r="C36" s="127" t="s">
         <v>221</v>
       </c>
     </row>
@@ -40292,7 +40296,7 @@
     </row>
     <row r="54" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="94"/>
-      <c r="B54" s="122"/>
+      <c r="B54" s="124"/>
       <c r="C54" s="94"/>
     </row>
     <row r="55" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -40350,23 +40354,23 @@
       <c r="A1" s="163" t="s">
         <v>355</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="144"/>
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="141"/>
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="110"/>
-      <c r="B2" s="145"/>
-      <c r="C2" s="145"/>
-      <c r="D2" s="146"/>
+      <c r="B2" s="142"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="143"/>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="133" t="s">
+      <c r="A3" s="145" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="134"/>
-      <c r="C3" s="134"/>
-      <c r="D3" s="135"/>
+      <c r="B3" s="146"/>
+      <c r="C3" s="146"/>
+      <c r="D3" s="147"/>
     </row>
     <row r="4" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="62" t="s">
@@ -40415,28 +40419,28 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="120" t="s">
+      <c r="A8" s="122" t="s">
         <v>226</v>
       </c>
-      <c r="B8" s="132" t="s">
+      <c r="B8" s="150" t="s">
         <v>227</v>
       </c>
-      <c r="C8" s="132" t="s">
+      <c r="C8" s="150" t="s">
         <v>228</v>
       </c>
-      <c r="D8" s="120" t="s">
+      <c r="D8" s="122" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="88"/>
-      <c r="B9" s="124"/>
+      <c r="B9" s="126"/>
       <c r="C9" s="88"/>
       <c r="D9" s="88"/>
     </row>
     <row r="10" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="88"/>
-      <c r="B10" s="124"/>
+      <c r="B10" s="126"/>
       <c r="C10" s="88"/>
       <c r="D10" s="88"/>
     </row>
@@ -40471,10 +40475,10 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="120" t="s">
+      <c r="A14" s="122" t="s">
         <v>230</v>
       </c>
-      <c r="B14" s="132" t="s">
+      <c r="B14" s="150" t="s">
         <v>231</v>
       </c>
       <c r="C14" s="54" t="s">
@@ -40486,7 +40490,7 @@
     </row>
     <row r="15" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="88"/>
-      <c r="B15" s="124"/>
+      <c r="B15" s="126"/>
       <c r="C15" s="54"/>
       <c r="D15" s="40"/>
     </row>
@@ -40517,13 +40521,13 @@
         <v>68</v>
       </c>
       <c r="B18" s="54"/>
-      <c r="C18" s="132"/>
-      <c r="D18" s="120" t="s">
+      <c r="C18" s="150"/>
+      <c r="D18" s="122" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="120" t="s">
+      <c r="A19" s="122" t="s">
         <v>235</v>
       </c>
       <c r="B19" s="119" t="s">
@@ -40534,19 +40538,19 @@
     </row>
     <row r="20" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="88"/>
-      <c r="B20" s="124"/>
+      <c r="B20" s="126"/>
       <c r="C20" s="88"/>
       <c r="D20" s="88"/>
     </row>
     <row r="21" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="88"/>
-      <c r="B21" s="124"/>
+      <c r="B21" s="126"/>
       <c r="C21" s="54"/>
       <c r="D21" s="40"/>
     </row>
     <row r="22" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="88"/>
-      <c r="B22" s="124"/>
+      <c r="B22" s="126"/>
       <c r="C22" s="55"/>
       <c r="D22" s="39" t="s">
         <v>106</v>
@@ -40554,7 +40558,7 @@
     </row>
     <row r="23" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="88"/>
-      <c r="B23" s="124"/>
+      <c r="B23" s="126"/>
       <c r="C23" s="54"/>
       <c r="D23" s="40" t="s">
         <v>27</v>
@@ -40562,9 +40566,9 @@
     </row>
     <row r="24" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="39"/>
-      <c r="B24" s="124"/>
-      <c r="C24" s="132"/>
-      <c r="D24" s="120" t="s">
+      <c r="B24" s="126"/>
+      <c r="C24" s="150"/>
+      <c r="D24" s="122" t="s">
         <v>237</v>
       </c>
     </row>
@@ -40572,7 +40576,7 @@
       <c r="A25" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="B25" s="124"/>
+      <c r="B25" s="126"/>
       <c r="C25" s="88"/>
       <c r="D25" s="88"/>
     </row>
@@ -40580,15 +40584,15 @@
       <c r="A26" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="124"/>
+      <c r="B26" s="126"/>
       <c r="C26" s="88"/>
       <c r="D26" s="88"/>
     </row>
     <row r="27" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="120" t="s">
+      <c r="A27" s="122" t="s">
         <v>238</v>
       </c>
-      <c r="B27" s="124"/>
+      <c r="B27" s="126"/>
       <c r="C27" s="54"/>
       <c r="D27" s="40"/>
     </row>
@@ -40607,7 +40611,7 @@
     <row r="30" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="88"/>
       <c r="B30" s="54"/>
-      <c r="C30" s="132"/>
+      <c r="C30" s="150"/>
       <c r="D30" s="40"/>
     </row>
     <row r="31" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -40639,23 +40643,23 @@
       <c r="D34" s="40"/>
     </row>
     <row r="35" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="149" t="s">
+      <c r="A35" s="127" t="s">
         <v>239</v>
       </c>
-      <c r="B35" s="132"/>
+      <c r="B35" s="150"/>
       <c r="C35" s="55"/>
       <c r="D35" s="39"/>
     </row>
     <row r="36" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="88"/>
-      <c r="B36" s="124"/>
+      <c r="B36" s="126"/>
       <c r="C36" s="54"/>
       <c r="D36" s="40"/>
     </row>
     <row r="37" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="88"/>
-      <c r="B37" s="124"/>
-      <c r="C37" s="132"/>
+      <c r="B37" s="126"/>
+      <c r="C37" s="150"/>
       <c r="D37" s="40"/>
     </row>
     <row r="38" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -40685,7 +40689,7 @@
     <row r="42" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="40"/>
       <c r="B42" s="54"/>
-      <c r="C42" s="132"/>
+      <c r="C42" s="150"/>
       <c r="D42" s="40"/>
     </row>
     <row r="43" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -40741,7 +40745,7 @@
     <row r="51" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="40"/>
       <c r="B51" s="54"/>
-      <c r="C51" s="132" t="s">
+      <c r="C51" s="150" t="s">
         <v>240</v>
       </c>
       <c r="D51" s="40"/>
@@ -40787,7 +40791,7 @@
     <row r="58" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="40"/>
       <c r="B58" s="54"/>
-      <c r="C58" s="132" t="s">
+      <c r="C58" s="150" t="s">
         <v>241</v>
       </c>
       <c r="D58" s="40"/>
@@ -40851,7 +40855,7 @@
     <row r="68" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="40"/>
       <c r="B68" s="54"/>
-      <c r="C68" s="132" t="s">
+      <c r="C68" s="150" t="s">
         <v>242</v>
       </c>
       <c r="D68" s="40"/>
@@ -40891,7 +40895,7 @@
     <row r="74" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A74" s="40"/>
       <c r="B74" s="54"/>
-      <c r="C74" s="132" t="s">
+      <c r="C74" s="150" t="s">
         <v>243</v>
       </c>
       <c r="D74" s="40"/>
@@ -40930,10 +40934,10 @@
       <c r="A80" s="87" t="s">
         <v>244</v>
       </c>
-      <c r="B80" s="123" t="s">
+      <c r="B80" s="125" t="s">
         <v>245</v>
       </c>
-      <c r="C80" s="121" t="s">
+      <c r="C80" s="123" t="s">
         <v>246</v>
       </c>
       <c r="D80" s="87" t="s">
@@ -41004,8 +41008,8 @@
     </row>
     <row r="91" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A91" s="94"/>
-      <c r="B91" s="122"/>
-      <c r="C91" s="122"/>
+      <c r="B91" s="124"/>
+      <c r="C91" s="124"/>
       <c r="D91" s="94"/>
     </row>
     <row r="92" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -41057,7 +41061,7 @@
   </sheetPr>
   <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
@@ -41067,7 +41071,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="128" t="s">
         <v>360</v>
       </c>
       <c r="B1" s="94"/>
@@ -41082,8 +41086,8 @@
       <c r="A3" s="200" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="137"/>
-      <c r="C3" s="137"/>
+      <c r="B3" s="129"/>
+      <c r="C3" s="129"/>
     </row>
     <row r="4" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="62" t="s">
@@ -41128,24 +41132,24 @@
       <c r="C7" s="40"/>
     </row>
     <row r="8" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="120" t="s">
+      <c r="A8" s="122" t="s">
         <v>251</v>
       </c>
-      <c r="B8" s="120" t="s">
+      <c r="B8" s="122" t="s">
         <v>252</v>
       </c>
-      <c r="C8" s="120" t="s">
+      <c r="C8" s="122" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="88"/>
-      <c r="B9" s="124"/>
+      <c r="B9" s="126"/>
       <c r="C9" s="88"/>
     </row>
     <row r="10" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="88"/>
-      <c r="B10" s="124"/>
+      <c r="B10" s="126"/>
       <c r="C10" s="88"/>
     </row>
     <row r="11" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -41175,7 +41179,7 @@
       <c r="A14" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="120" t="s">
+      <c r="B14" s="122" t="s">
         <v>255</v>
       </c>
       <c r="C14" s="40" t="s">
@@ -41183,22 +41187,22 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="120" t="s">
+      <c r="A15" s="122" t="s">
         <v>256</v>
       </c>
-      <c r="B15" s="124"/>
-      <c r="C15" s="120" t="s">
+      <c r="B15" s="126"/>
+      <c r="C15" s="122" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="88"/>
-      <c r="B16" s="124"/>
+      <c r="B16" s="126"/>
       <c r="C16" s="88"/>
     </row>
     <row r="17" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="40"/>
-      <c r="B17" s="124"/>
+      <c r="B17" s="126"/>
       <c r="C17" s="40"/>
     </row>
     <row r="18" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -41222,33 +41226,33 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A20" s="120" t="s">
+      <c r="A20" s="122" t="s">
         <v>258</v>
       </c>
       <c r="B20" s="53" t="s">
         <v>259</v>
       </c>
-      <c r="C20" s="120" t="s">
+      <c r="C20" s="122" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="88"/>
-      <c r="B21" s="120" t="s">
+      <c r="B21" s="122" t="s">
         <v>261</v>
       </c>
       <c r="C21" s="88"/>
     </row>
     <row r="22" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="40"/>
-      <c r="B22" s="124"/>
+      <c r="B22" s="126"/>
       <c r="C22" s="40"/>
     </row>
     <row r="23" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="B23" s="124"/>
+      <c r="B23" s="126"/>
       <c r="C23" s="40"/>
     </row>
     <row r="24" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -41259,7 +41263,7 @@
       <c r="C24" s="40"/>
     </row>
     <row r="25" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="120" t="s">
+      <c r="A25" s="122" t="s">
         <v>262</v>
       </c>
       <c r="B25" s="39" t="s">
@@ -41276,7 +41280,7 @@
     </row>
     <row r="27" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="40"/>
-      <c r="B27" s="120" t="s">
+      <c r="B27" s="122" t="s">
         <v>263</v>
       </c>
       <c r="C27" s="40"/>
@@ -41285,18 +41289,18 @@
       <c r="A28" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="B28" s="124"/>
+      <c r="B28" s="126"/>
       <c r="C28" s="40"/>
     </row>
     <row r="29" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="124"/>
+      <c r="B29" s="126"/>
       <c r="C29" s="40"/>
     </row>
     <row r="30" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="120" t="s">
+      <c r="A30" s="122" t="s">
         <v>264</v>
       </c>
       <c r="B30" s="40"/>
@@ -41318,7 +41322,7 @@
     </row>
     <row r="33" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="40"/>
-      <c r="B33" s="120" t="s">
+      <c r="B33" s="122" t="s">
         <v>266</v>
       </c>
       <c r="C33" s="40"/>
@@ -41327,18 +41331,18 @@
       <c r="A34" s="39" t="s">
         <v>267</v>
       </c>
-      <c r="B34" s="124"/>
+      <c r="B34" s="126"/>
       <c r="C34" s="40"/>
     </row>
     <row r="35" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="124"/>
+      <c r="B35" s="126"/>
       <c r="C35" s="40"/>
     </row>
     <row r="36" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="120" t="s">
+      <c r="A36" s="122" t="s">
         <v>268</v>
       </c>
       <c r="B36" s="40"/>
@@ -41424,7 +41428,7 @@
     </row>
     <row r="51" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="94"/>
-      <c r="B51" s="122"/>
+      <c r="B51" s="124"/>
       <c r="C51" s="94"/>
     </row>
     <row r="52" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -41436,7 +41440,6 @@
     <row r="54" spans="1:3" ht="12.75" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A15:A16"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="B33:B35"/>
@@ -41456,6 +41459,7 @@
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="B27:B29"/>
+    <mergeCell ref="A15:A16"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -41483,20 +41487,20 @@
       <c r="A1" s="164" t="s">
         <v>364</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="128"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="132"/>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="129"/>
-      <c r="B2" s="130"/>
-      <c r="C2" s="131"/>
+      <c r="A2" s="133"/>
+      <c r="B2" s="134"/>
+      <c r="C2" s="135"/>
     </row>
     <row r="3" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="200" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="137"/>
-      <c r="C3" s="137"/>
+      <c r="B3" s="129"/>
+      <c r="C3" s="129"/>
     </row>
     <row r="4" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="56" t="s">
@@ -41543,10 +41547,10 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="120" t="s">
+      <c r="A8" s="122" t="s">
         <v>278</v>
       </c>
-      <c r="B8" s="132" t="s">
+      <c r="B8" s="150" t="s">
         <v>279</v>
       </c>
       <c r="C8" s="40"/>
@@ -41554,7 +41558,7 @@
     <row r="9" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="88"/>
       <c r="B9" s="88"/>
-      <c r="C9" s="120" t="s">
+      <c r="C9" s="122" t="s">
         <v>280</v>
       </c>
     </row>
@@ -41589,7 +41593,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="120" t="s">
+      <c r="A14" s="122" t="s">
         <v>283</v>
       </c>
       <c r="B14" s="119" t="s">
@@ -41602,7 +41606,7 @@
     <row r="15" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="88"/>
       <c r="B15" s="88"/>
-      <c r="C15" s="120" t="s">
+      <c r="C15" s="122" t="s">
         <v>285</v>
       </c>
     </row>
@@ -41662,7 +41666,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="120" t="s">
+      <c r="A23" s="122" t="s">
         <v>290</v>
       </c>
       <c r="B23" s="54"/>
@@ -41701,10 +41705,10 @@
       <c r="B28" s="54" t="s">
         <v>293</v>
       </c>
-      <c r="C28" s="120"/>
+      <c r="C28" s="122"/>
     </row>
     <row r="29" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="120" t="s">
+      <c r="A29" s="122" t="s">
         <v>294</v>
       </c>
       <c r="B29" s="54" t="s">
@@ -41734,10 +41738,10 @@
         <v>30</v>
       </c>
       <c r="B33" s="55"/>
-      <c r="C33" s="120"/>
+      <c r="C33" s="122"/>
     </row>
     <row r="34" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="120" t="s">
+      <c r="A34" s="122" t="s">
         <v>294</v>
       </c>
       <c r="B34" s="55"/>
@@ -41773,11 +41777,11 @@
       <c r="C39" s="40"/>
     </row>
     <row r="40" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="120" t="s">
+      <c r="A40" s="122" t="s">
         <v>294</v>
       </c>
       <c r="B40" s="55"/>
-      <c r="C40" s="120"/>
+      <c r="C40" s="122"/>
     </row>
     <row r="41" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="88"/>
@@ -41809,7 +41813,7 @@
       <c r="C45" s="40"/>
     </row>
     <row r="46" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="120" t="s">
+      <c r="A46" s="122" t="s">
         <v>294</v>
       </c>
       <c r="B46" s="88"/>
@@ -41963,22 +41967,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="149" t="s">
         <v>365</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="128"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="132"/>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="139"/>
-      <c r="B2" s="140"/>
-      <c r="C2" s="141"/>
+      <c r="A2" s="136"/>
+      <c r="B2" s="137"/>
+      <c r="C2" s="138"/>
     </row>
     <row r="3" spans="1:3" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="201" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="127"/>
+      <c r="B3" s="131"/>
       <c r="C3" s="202"/>
     </row>
     <row r="4" spans="1:3" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -42026,7 +42030,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="150" t="s">
+      <c r="A8" s="151" t="s">
         <v>51</v>
       </c>
       <c r="B8" s="40" t="s">
@@ -42038,10 +42042,10 @@
     </row>
     <row r="9" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="109"/>
-      <c r="B9" s="120" t="s">
+      <c r="B9" s="122" t="s">
         <v>302</v>
       </c>
-      <c r="C9" s="120" t="s">
+      <c r="C9" s="122" t="s">
         <v>303</v>
       </c>
     </row>
@@ -42061,7 +42065,7 @@
       <c r="C12" s="40"/>
     </row>
     <row r="13" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="150" t="s">
+      <c r="A13" s="151" t="s">
         <v>304</v>
       </c>
       <c r="B13" s="48" t="s">
@@ -42083,7 +42087,7 @@
       <c r="B15" s="156" t="s">
         <v>305</v>
       </c>
-      <c r="C15" s="120" t="s">
+      <c r="C15" s="122" t="s">
         <v>306</v>
       </c>
     </row>
@@ -42105,7 +42109,7 @@
       <c r="C18" s="88"/>
     </row>
     <row r="19" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="150" t="s">
+      <c r="A19" s="151" t="s">
         <v>31</v>
       </c>
       <c r="B19" s="40"/>
@@ -42121,7 +42125,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="154" t="s">
+      <c r="A21" s="121" t="s">
         <v>307</v>
       </c>
       <c r="B21" s="40" t="s">
@@ -42133,10 +42137,10 @@
     </row>
     <row r="22" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="109"/>
-      <c r="B22" s="120" t="s">
+      <c r="B22" s="122" t="s">
         <v>309</v>
       </c>
-      <c r="C22" s="120" t="s">
+      <c r="C22" s="122" t="s">
         <v>310</v>
       </c>
     </row>
@@ -42155,7 +42159,7 @@
       <c r="C24" s="88"/>
     </row>
     <row r="25" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="125" t="s">
+      <c r="A25" s="120" t="s">
         <v>311</v>
       </c>
       <c r="B25" s="88"/>
@@ -42180,7 +42184,7 @@
         <v>379</v>
       </c>
       <c r="B28" s="88"/>
-      <c r="C28" s="120" t="s">
+      <c r="C28" s="122" t="s">
         <v>312</v>
       </c>
     </row>
@@ -42192,7 +42196,7 @@
       <c r="C29" s="88"/>
     </row>
     <row r="30" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="125" t="s">
+      <c r="A30" s="120" t="s">
         <v>313</v>
       </c>
       <c r="B30" s="88"/>
@@ -42239,11 +42243,11 @@
       <c r="C36" s="40"/>
     </row>
     <row r="37" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="125" t="s">
+      <c r="A37" s="120" t="s">
         <v>317</v>
       </c>
       <c r="B37" s="88"/>
-      <c r="C37" s="120"/>
+      <c r="C37" s="122"/>
     </row>
     <row r="38" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="109"/>
@@ -42258,7 +42262,7 @@
       <c r="C39" s="88"/>
     </row>
     <row r="40" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="125" t="s">
+      <c r="A40" s="120" t="s">
         <v>24</v>
       </c>
       <c r="B40" s="88"/>
@@ -42277,10 +42281,10 @@
     <row r="43" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="109"/>
       <c r="B43" s="88"/>
-      <c r="C43" s="120"/>
+      <c r="C43" s="122"/>
     </row>
     <row r="44" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="125" t="s">
+      <c r="A44" s="120" t="s">
         <v>318</v>
       </c>
       <c r="B44" s="88"/>
@@ -42316,7 +42320,7 @@
       <c r="C49" s="39"/>
     </row>
     <row r="50" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="125" t="s">
+      <c r="A50" s="120" t="s">
         <v>319</v>
       </c>
       <c r="B50" s="40"/>
@@ -42325,7 +42329,7 @@
     <row r="51" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="109"/>
       <c r="B51" s="40"/>
-      <c r="C51" s="120"/>
+      <c r="C51" s="122"/>
     </row>
     <row r="52" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="109"/>
@@ -42343,7 +42347,7 @@
       <c r="C54" s="88"/>
     </row>
     <row r="55" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="154" t="s">
+      <c r="A55" s="121" t="s">
         <v>137</v>
       </c>
       <c r="B55" s="40"/>
@@ -42355,7 +42359,7 @@
       <c r="C56" s="88"/>
     </row>
     <row r="57" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A57" s="125" t="s">
+      <c r="A57" s="120" t="s">
         <v>139</v>
       </c>
       <c r="B57" s="40"/>
